--- a/Images & Resources/data_codebook.xlsx
+++ b/Images & Resources/data_codebook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CFSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CFSI\Images &amp; Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692EE63B-469B-40F7-9E37-5FE12D22ED51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD816103-6FE6-460B-95DF-C1B334346644}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="258">
   <si>
     <t>Variable Name</t>
   </si>
@@ -788,6 +788,30 @@
       </rPr>
       <t>Answers given to questions that are not applicable anymore at survey completion (for example because a respondent went back in the survey and skipped over a previously answered question) are treated as if the questions were never asked. In the data files all questions that were asked, but not answered by the respondent are marked with ".e". All questions never seen by the respondent (or any dirty data) are marked with ".a" or " ". Never seeing a question may mean the respondent skipped over it; or alternatively that s/he never reached that question in the survey due to a survey break off.</t>
     </r>
+  </si>
+  <si>
+    <t>1.0    596</t>
+  </si>
+  <si>
+    <t>7.0     68</t>
+  </si>
+  <si>
+    <t>4.0     67</t>
+  </si>
+  <si>
+    <t>8.0     29</t>
+  </si>
+  <si>
+    <t>6.0     18</t>
+  </si>
+  <si>
+    <t>3.0      5</t>
+  </si>
+  <si>
+    <t>2.0      3</t>
+  </si>
+  <si>
+    <t>5.0      1</t>
   </si>
 </sst>
 </file>
@@ -1139,12 +1163,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:L256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
+      <selection pane="bottomLeft" activeCell="I126" sqref="E120:I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3047,7 +3071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -3062,7 +3086,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -3079,7 +3103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -3096,7 +3120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -3113,7 +3137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -3130,7 +3154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3147,7 +3171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -3162,7 +3186,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -3175,21 +3199,8 @@
       <c r="D120" t="s">
         <v>204</v>
       </c>
-      <c r="E120" t="s">
-        <v>206</v>
-      </c>
-      <c r="F120">
-        <v>3</v>
-      </c>
-      <c r="G120">
-        <v>277</v>
-      </c>
-      <c r="H120">
-        <f>(G120/$G$125)*100</f>
-        <v>35.152284263959395</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -3202,21 +3213,8 @@
       <c r="D121" t="s">
         <v>205</v>
       </c>
-      <c r="E121" t="s">
-        <v>207</v>
-      </c>
-      <c r="F121">
-        <v>4</v>
-      </c>
-      <c r="G121">
-        <v>169</v>
-      </c>
-      <c r="H121">
-        <f t="shared" ref="H121:H124" si="0">(G121/$G$125)*100</f>
-        <v>21.446700507614214</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3229,21 +3227,8 @@
       <c r="D122" t="s">
         <v>206</v>
       </c>
-      <c r="E122" t="s">
-        <v>205</v>
-      </c>
-      <c r="F122">
-        <v>2</v>
-      </c>
-      <c r="G122">
-        <v>145</v>
-      </c>
-      <c r="H122">
-        <f t="shared" si="0"/>
-        <v>18.401015228426395</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -3256,21 +3241,8 @@
       <c r="D123" t="s">
         <v>207</v>
       </c>
-      <c r="E123" t="s">
-        <v>204</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123">
-        <v>127</v>
-      </c>
-      <c r="H123">
-        <f t="shared" si="0"/>
-        <v>16.116751269035532</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3283,21 +3255,8 @@
       <c r="D124" t="s">
         <v>208</v>
       </c>
-      <c r="E124" t="s">
-        <v>208</v>
-      </c>
-      <c r="F124">
-        <v>5</v>
-      </c>
-      <c r="G124">
-        <v>70</v>
-      </c>
-      <c r="H124">
-        <f t="shared" si="0"/>
-        <v>8.8832487309644677</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -3308,15 +3267,8 @@
       <c r="D125" t="s">
         <v>5</v>
       </c>
-      <c r="E125" t="s">
-        <v>245</v>
-      </c>
-      <c r="G125">
-        <f>SUM(G120:G124)</f>
-        <v>788</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3329,11 +3281,8 @@
       <c r="D126" t="s">
         <v>209</v>
       </c>
-      <c r="E126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3350,7 +3299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -4423,7 +4372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
         <v>29</v>
       </c>
@@ -4438,7 +4387,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -4455,7 +4404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -4472,7 +4421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -4489,7 +4438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
         <v>30</v>
       </c>
@@ -4504,7 +4453,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:12">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -4521,7 +4470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -4538,7 +4487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:12">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -4555,7 +4504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:12">
       <c r="A201" t="s">
         <v>31</v>
       </c>
@@ -4569,8 +4518,21 @@
       <c r="E201" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="I201" t="s">
+        <v>250</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>596</v>
+      </c>
+      <c r="L201">
+        <f>(K201/$K$209)*100</f>
+        <v>75.730622617534934</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -4586,8 +4548,21 @@
       <c r="E202" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="I202" t="s">
+        <v>251</v>
+      </c>
+      <c r="J202">
+        <v>7</v>
+      </c>
+      <c r="K202">
+        <v>68</v>
+      </c>
+      <c r="L202">
+        <f t="shared" ref="L202:L208" si="0">(K202/$K$209)*100</f>
+        <v>8.6404066073697585</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -4603,8 +4578,21 @@
       <c r="E203" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="I203" t="s">
+        <v>252</v>
+      </c>
+      <c r="J203">
+        <v>4</v>
+      </c>
+      <c r="K203">
+        <v>67</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="0"/>
+        <v>8.513341804320202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -4620,8 +4608,21 @@
       <c r="E204" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="I204" t="s">
+        <v>253</v>
+      </c>
+      <c r="J204">
+        <v>8</v>
+      </c>
+      <c r="K204">
+        <v>29</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="0"/>
+        <v>3.6848792884371027</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
         <v>32</v>
       </c>
@@ -4635,8 +4636,21 @@
       <c r="E205" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="I205" t="s">
+        <v>254</v>
+      </c>
+      <c r="J205">
+        <v>6</v>
+      </c>
+      <c r="K205">
+        <v>18</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="0"/>
+        <v>2.2871664548919948</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -4652,8 +4666,21 @@
       <c r="E206" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="I206" t="s">
+        <v>255</v>
+      </c>
+      <c r="J206">
+        <v>3</v>
+      </c>
+      <c r="K206">
+        <v>5</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="0"/>
+        <v>0.63532401524777637</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -4669,8 +4696,21 @@
       <c r="E207" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="I207" t="s">
+        <v>256</v>
+      </c>
+      <c r="J207">
+        <v>2</v>
+      </c>
+      <c r="K207">
+        <v>3</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="0"/>
+        <v>0.38119440914866581</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -4686,8 +4726,21 @@
       <c r="E208" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="I208" t="s">
+        <v>257</v>
+      </c>
+      <c r="J208">
+        <v>5</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="0"/>
+        <v>0.12706480304955528</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
         <v>33</v>
       </c>
@@ -4701,8 +4754,12 @@
       <c r="E209" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="K209">
+        <f>SUM(K201:K208)</f>
+        <v>787</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -4719,7 +4776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -4736,7 +4793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -4753,7 +4810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
         <v>34</v>
       </c>
@@ -4768,7 +4825,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
         <v>35</v>
       </c>
@@ -4783,7 +4840,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
         <v>36</v>
       </c>
@@ -4798,7 +4855,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -4813,7 +4870,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
         <v>38</v>
       </c>
@@ -4828,7 +4885,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
         <v>39</v>
       </c>
@@ -4843,7 +4900,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
         <v>40</v>
       </c>
@@ -4858,7 +4915,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
         <v>41</v>
       </c>
@@ -4873,7 +4930,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
         <v>42</v>
       </c>
@@ -4888,7 +4945,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4905,7 +4962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -4922,7 +4979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:11">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -5469,5 +5526,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>